--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exceljsTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FB43F-59EF-4B73-9A0D-90EFB2A9AE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FE5A5-AACE-4DE8-9CF4-5AD103FC22FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0150B3-1299-472E-ACE2-DAE3BD1060C4}"/>
   </bookViews>
@@ -25,94 +25,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>8시</t>
+  </si>
+  <si>
+    <t>9시</t>
+  </si>
+  <si>
+    <t>10시</t>
+  </si>
+  <si>
+    <t>11시</t>
+  </si>
+  <si>
+    <t>12시</t>
+  </si>
+  <si>
+    <t>13시</t>
+  </si>
+  <si>
+    <t>14시</t>
+  </si>
+  <si>
+    <t>15시</t>
+  </si>
+  <si>
+    <t>16시</t>
+  </si>
+  <si>
+    <t>17시</t>
+  </si>
+  <si>
+    <t>18시</t>
+  </si>
+  <si>
+    <t>19시</t>
+  </si>
+  <si>
+    <t>20시</t>
+  </si>
+  <si>
+    <t>21시</t>
+  </si>
+  <si>
+    <t>22시</t>
+  </si>
+  <si>
+    <t>23시</t>
+  </si>
+  <si>
+    <t>3시</t>
+  </si>
+  <si>
+    <t>4시</t>
+  </si>
+  <si>
+    <t>5시</t>
+  </si>
+  <si>
+    <t>평균전력</t>
+  </si>
+  <si>
+    <t>최대전력</t>
+  </si>
+  <si>
+    <t>부 하 량</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◈ 154kV 변전소 일지 ◈       </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve">       항목
 시간</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7시</t>
-  </si>
-  <si>
-    <t>8시</t>
-  </si>
-  <si>
-    <t>9시</t>
-  </si>
-  <si>
-    <t>10시</t>
-  </si>
-  <si>
-    <t>11시</t>
-  </si>
-  <si>
-    <t>12시</t>
-  </si>
-  <si>
-    <t>13시</t>
-  </si>
-  <si>
-    <t>14시</t>
-  </si>
-  <si>
-    <t>15시</t>
-  </si>
-  <si>
-    <t>16시</t>
-  </si>
-  <si>
-    <t>17시</t>
-  </si>
-  <si>
-    <t>18시</t>
-  </si>
-  <si>
-    <t>19시</t>
-  </si>
-  <si>
-    <t>20시</t>
-  </si>
-  <si>
-    <t>21시</t>
-  </si>
-  <si>
-    <t>22시</t>
-  </si>
-  <si>
-    <t>23시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>24시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2시</t>
-  </si>
-  <si>
-    <t>3시</t>
-  </si>
-  <si>
-    <t>4시</t>
-  </si>
-  <si>
-    <t>5시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>합      계</t>
-  </si>
-  <si>
-    <t>평균전력</t>
-  </si>
-  <si>
-    <t>최대전력</t>
-  </si>
-  <si>
-    <t>부 하 량</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -122,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +211,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +394,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +428,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="백분율 2" xfId="5" xr:uid="{6079BE32-85B6-4AEF-A225-338D7B778F38}"/>
@@ -397,6 +455,1536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EA62F6-F2BD-45FD-A389-018B19E0615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97042DCC-755B-4244-A455-62203D75FC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5086913E-5F7C-46B9-9AAE-64887B4C5579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9153525"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DC97AC-E4EF-43AD-AA50-04A47C5C6235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3648DF-48AD-4944-936A-4FC5F934E1FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3243977C-011C-4DEE-B4DF-D5D7E6B602C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC59E6B-2958-4CEA-AF06-5F291C3AA888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAB0E14-C9CF-4D12-AF71-9F6A9CB97763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B9962E-9FC4-4A38-B0F5-D70582571386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246E3949-8C80-4B31-8E96-CDCBBD2F3BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A993192E-137D-441C-B978-7B9D8DBA2183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42D5DB2-9D51-4A89-9974-C785AC33D57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8F6583-1C6D-4199-BF6A-666763C79DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C56882E-515F-4DA6-BE2A-343DB5181A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB9477B-8B76-442D-8EB4-68F61B6D0F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F8531F-DC59-4978-B292-BEB5AFC6D40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AA4690-D55E-483C-9E54-D503EEE03CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EFF00B-C2A2-4AEE-A93F-7AF2751C34C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9832069B-A27F-4E7B-9A79-B80AED571FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03503923-BABF-45C0-8EFF-A0270A3BF7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD76598-68BF-4BD8-A580-CB1D5EC2B4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69AA53C-8ABA-4F64-B66F-574874E61FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB59C3CD-C4B1-4A86-90E1-77800A40355B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A584-AD2F-42C6-8D47-5125E7C54F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Text Box 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEAB7B4-EC74-43FB-B1F8-1503C894C21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="104775" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,14 +2284,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E33EDD-A8C3-4AB4-B132-8E6DDA63D439}">
-  <dimension ref="B1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
@@ -712,201 +2301,211 @@
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>